--- a/Books_links.xlsx
+++ b/Books_links.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C376"/>
+  <dimension ref="A1:C451"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5313,6 +5313,981 @@
         <v>16</v>
       </c>
     </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>56.76</v>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>Giant Days, Vol. 1 (Giant Days #1-4)</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>40.28</v>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>Fruits Basket, Vol. 1 (Fruits Basket #1)</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>57.06</v>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>Ajin: Demi-Human, Volume 1 (Ajin: Demi-Human #1)</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>34.65</v>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>Bleach, Vol. 1: Strawberry and the Soul Reapers (Bleach #1)</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>28.48</v>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>Saga, Volume 1 (Saga (Collected Editions) #1)</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>42.12</v>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>Skip Beat!, Vol. 01 (Skip Beat! #1)</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>46.96</v>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>Rat Queens, Vol. 1: Sass &amp; Sorcery (Rat Queens (Collected Editions) #1-5)</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>10.64</v>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>The Complete Maus (Maus #1-2)</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>36.52</v>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>The Wicked + The Divine, Vol. 1: The Faust Act (The Wicked + The Divine)</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>54.12</v>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>The Sandman, Vol. 1: Preludes and Nocturnes (The Sandman (volumes) #1)</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>18.51</v>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>Y: The Last Man, Vol. 1: Unmanned (Y: The Last Man #1)</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>Roller Girl</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>21.71</v>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>Paper Girls, Vol. 1 (Paper Girls #1-5)</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>Saga, Volume 2 (Saga (Collected Editions) #2)</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>Fruits Basket, Vol. 2 (Fruits Basket #2)</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>39.39</v>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>Ms. Marvel, Vol. 1: No Normal (Ms. Marvel (2014-2015) #1)</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>45.24</v>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>Hawkeye, Vol. 1: My Life as a Weapon (Hawkeye #1)</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>54.81</v>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>The Sandman, Vol. 2: The Doll's House (The Sandman (volumes) #2)</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>29.87</v>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>Ouran High School Host Club, Vol. 1 (Ouran High School Host Club #1)</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>38.02</v>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>Awkward</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>49.31</v>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>Black Butler, Vol. 1 (Black Butler #1)</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>33.95</v>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>Fruits Basket, Vol. 9 (Fruits Basket #9)</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>42.72</v>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>Grayson, Vol 3: Nemesis (Grayson #3)</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>32.01</v>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>Batman: Europa</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>Art Ops Vol. 1</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>45.17</v>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>Fruits Basket, Vol. 3 (Fruits Basket #3)</t>
+        </is>
+      </c>
+      <c r="C402" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>Adulthood Is a Myth: A "Sarah's Scribbles" Collection</t>
+        </is>
+      </c>
+      <c r="C403" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>57.62</v>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>El Deafo</t>
+        </is>
+      </c>
+      <c r="C404" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>51.51</v>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>Lowriders to the Center of the Earth (Lowriders in Space #2)</t>
+        </is>
+      </c>
+      <c r="C405" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>38.39</v>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>Naruto (3-in-1 Edition), Vol. 14: Includes Vols. 40, 41 &amp; 42 (Naruto: Omnibus #14)</t>
+        </is>
+      </c>
+      <c r="C406" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>25.48</v>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>Red Hood/Arsenal, Vol. 1: Open for Business (Red Hood/Arsenal #1)</t>
+        </is>
+      </c>
+      <c r="C407" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>47.82</v>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>Robin War</t>
+        </is>
+      </c>
+      <c r="C408" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>Through the Woods</t>
+        </is>
+      </c>
+      <c r="C409" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>53.9</v>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>We Are Robin, Vol. 1: The Vigilante Business (We Are Robin #1)</t>
+        </is>
+      </c>
+      <c r="C410" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>Superman Vol. 1: Before Truth (Superman by Gene Luen Yang #1)</t>
+        </is>
+      </c>
+      <c r="C411" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>35.43</v>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>So Cute It Hurts!!, Vol. 6 (So Cute It Hurts!! #6)</t>
+        </is>
+      </c>
+      <c r="C412" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>37.34</v>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>Wonder Woman: Earth One, Volume One (Wonder Woman: Earth One #1)</t>
+        </is>
+      </c>
+      <c r="C413" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>Batman: The Long Halloween (Batman)</t>
+        </is>
+      </c>
+      <c r="C414" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>15.38</v>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>Batman: The Dark Knight Returns (Batman)</t>
+        </is>
+      </c>
+      <c r="C415" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>41.62</v>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>Fables, Vol. 1: Legends in Exile (Fables #1)</t>
+        </is>
+      </c>
+      <c r="C416" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>39.13</v>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>Persepolis: The Story of a Childhood (Persepolis #1-2)</t>
+        </is>
+      </c>
+      <c r="C417" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>33.14</v>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>The Shadow Hero (The Shadow Hero)</t>
+        </is>
+      </c>
+      <c r="C418" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>31.45</v>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>Original Fake</t>
+        </is>
+      </c>
+      <c r="C419" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>37.92</v>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>Bitch Planet, Vol. 1: Extraordinary Machine (Bitch Planet (Collected Editions))</t>
+        </is>
+      </c>
+      <c r="C420" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>43.63</v>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>Prodigy: The Graphic Novel (Legend: The Graphic Novel #2)</t>
+        </is>
+      </c>
+      <c r="C421" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>21.57</v>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>Saga, Volume 3 (Saga (Collected Editions) #3)</t>
+        </is>
+      </c>
+      <c r="C422" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>14.41</v>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>The Wicked + The Divine, Vol. 3: Commercial Suicide (The Wicked + The Divine)</t>
+        </is>
+      </c>
+      <c r="C423" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>55.55</v>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>The Sandman, Vol. 3: Dream Country (The Sandman (volumes) #3)</t>
+        </is>
+      </c>
+      <c r="C424" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>16.33</v>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>Fruits Basket, Vol. 5 (Fruits Basket #5)</t>
+        </is>
+      </c>
+      <c r="C425" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>52.41</v>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>Death Note, Vol. 5: Whiteout (Death Note #5)</t>
+        </is>
+      </c>
+      <c r="C426" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>50.44</v>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>Fruits Basket, Vol. 4 (Fruits Basket #4)</t>
+        </is>
+      </c>
+      <c r="C427" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>27.88</v>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>The Demon Prince of Momochi House, Vol. 4 (The Demon Prince of Momochi House #4)</t>
+        </is>
+      </c>
+      <c r="C428" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>36.39</v>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>Death Note, Vol. 6: Give-and-Take (Death Note #6)</t>
+        </is>
+      </c>
+      <c r="C429" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>20.96</v>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>Fruits Basket, Vol. 6 (Fruits Basket #6)</t>
+        </is>
+      </c>
+      <c r="C430" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>17.08</v>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>Camp Midnight</t>
+        </is>
+      </c>
+      <c r="C431" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>19.57</v>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>Fruits Basket, Vol. 7 (Fruits Basket #7)</t>
+        </is>
+      </c>
+      <c r="C432" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>51.99</v>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>Danganronpa Volume 1</t>
+        </is>
+      </c>
+      <c r="C433" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>54.63</v>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>I am a Hero Omnibus Volume 1</t>
+        </is>
+      </c>
+      <c r="C434" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>36.72</v>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>Codename Baboushka, Volume 1: The Conclave of Death</t>
+        </is>
+      </c>
+      <c r="C435" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>Giant Days, Vol. 2 (Giant Days #5-8)</t>
+        </is>
+      </c>
+      <c r="C436" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>29.17</v>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>I Hate Fairyland, Vol. 1: Madly Ever After (I Hate Fairyland (Compilations) #1-5)</t>
+        </is>
+      </c>
+      <c r="C437" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>46.91</v>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>Lumberjanes, Vol. 2: Friendship to the Max (Lumberjanes #5-8)</t>
+        </is>
+      </c>
+      <c r="C438" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>19.92</v>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>Lumberjanes Vol. 3: A Terrible Plan (Lumberjanes #9-12)</t>
+        </is>
+      </c>
+      <c r="C439" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>45.61</v>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>Lumberjanes, Vol. 1: Beware the Kitten Holy (Lumberjanes #1-4)</t>
+        </is>
+      </c>
+      <c r="C440" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>10.16</v>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>Patience</t>
+        </is>
+      </c>
+      <c r="C441" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>13.61</v>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>Princess Jellyfish 2-in-1 Omnibus, Vol. 01 (Princess Jellyfish 2-in-1 Omnibus #1)</t>
+        </is>
+      </c>
+      <c r="C442" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>15.44</v>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>Outcast, Vol. 1: A Darkness Surrounds Him (Outcast #1)</t>
+        </is>
+      </c>
+      <c r="C443" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>48.41</v>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>orange: The Complete Collection 1 (orange: The Complete Collection #1)</t>
+        </is>
+      </c>
+      <c r="C444" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>18.97</v>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>Pop Gun War, Volume 1: Gift</t>
+        </is>
+      </c>
+      <c r="C445" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>Rat Queens, Vol. 3: Demons (Rat Queens (Collected Editions) #11-15)</t>
+        </is>
+      </c>
+      <c r="C446" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>Saga, Volume 5 (Saga (Collected Editions) #5)</t>
+        </is>
+      </c>
+      <c r="C447" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>38.16</v>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>The Nameless City (The Nameless City #1)</t>
+        </is>
+      </c>
+      <c r="C448" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>52.29</v>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>Scott Pilgrim's Precious Little Life (Scott Pilgrim #1)</t>
+        </is>
+      </c>
+      <c r="C449" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>Tsubasa: WoRLD CHRoNiCLE 2 (Tsubasa WoRLD CHRoNiCLE #2)</t>
+        </is>
+      </c>
+      <c r="C450" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>19.49</v>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>This One Summer</t>
+        </is>
+      </c>
+      <c r="C451" t="n">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
